--- a/stats/harvard/disease_type=less-common-diseases failure-type-ignored=any-error for app=K Health.xlsx
+++ b/stats/harvard/disease_type=less-common-diseases failure-type-ignored=any-error for app=K Health.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.729</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>0.446</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="5">
@@ -893,106 +893,106 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="6">
@@ -1019,46 +1019,74 @@
           <t>stats_for_f1-score</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.337</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.375</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0.375</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.294</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0.337</v>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>0.25</v>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>0.099</v>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>0.461</v>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="n">
+        <v>0.375</v>
+      </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.099</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>2.115</v>
+      </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>0.769</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>0.703</v>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v>0.705</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1066,46 +1094,74 @@
           <t>stats_for_f2-score</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.503</v>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.441</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0.441</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0.39</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0.503</v>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>0.25</v>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>0.156</v>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>0.6</v>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="n">
+        <v>0.536</v>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0.156</v>
+      </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="n">
+        <v>2.451</v>
+      </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>0.893</v>
+      </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>0.855</v>
+      </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
+      <c r="AO7" t="n">
+        <v>0.8169999999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1114,106 +1170,106 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.608</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.428</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.658</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.658</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -1222,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -1231,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="9">
@@ -1241,85 +1297,85 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1331,16 +1387,16 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -1349,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -1358,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="10">
@@ -1368,106 +1424,106 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -1476,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -1485,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="11">
@@ -1495,106 +1551,106 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1603,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -1612,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="12">
@@ -1622,16 +1678,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.414</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1640,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1649,25 +1705,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.471</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1676,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1685,16 +1741,16 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.333</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>0.471</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1703,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1712,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -1721,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
@@ -1730,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -1739,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1749,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.667</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.633</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.667</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.471</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.866</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.688</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.299</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.225</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>2.062</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.871</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.225</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>0.829</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=less-common-diseases failure-type-ignored=any-error for app=K Health.xlsx
+++ b/stats/harvard/disease_type=less-common-diseases failure-type-ignored=any-error for app=K Health.xlsx
@@ -856,7 +856,7 @@
         <v>0.108</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.729</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AG4" t="n">
         <v>0.199</v>
@@ -983,7 +983,7 @@
         <v>0.433</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="AG5" t="n">
         <v>0.188</v>
@@ -1070,7 +1070,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.115</v>
+        <v>0.643</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.451</v>
+        <v>0.703</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1260,7 +1260,7 @@
         <v>0.273</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="AG8" t="n">
         <v>0.188</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="AG9" t="n">
         <v>0.188</v>
@@ -1514,7 +1514,7 @@
         <v>0.433</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="AG10" t="n">
         <v>0.188</v>
@@ -1641,7 +1641,7 @@
         <v>0.433</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="AG11" t="n">
         <v>0.188</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>1.871</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
         <v>1.5</v>
